--- a/data/trans_orig/P36B_4_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B_4_R-Edad-trans_orig.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D544CB8B-CBA1-46B4-971F-2A0B41E742E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5B97307-274F-47BB-BECE-CD0217AEEC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6348B6DD-56D5-4699-8FE0-1C988F540D12}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{905A9E16-0F43-4860-8CDB-C1CCD2B774B7}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,41 +39,1178 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
+  <si>
+    <t>Población que consume frutas a diario en 2007 (Tasa respuesta: 99,92%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>16/24</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
   <si>
     <t>Población que consume frutas a diario en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>16/24</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>70,41%</t>
   </si>
   <si>
@@ -98,9 +1238,6 @@
     <t>74,6%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>29,59%</t>
   </si>
   <si>
@@ -128,12 +1265,6 @@
     <t>35,62%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
     <t>67,78%</t>
   </si>
   <si>
@@ -188,12 +1319,6 @@
     <t>32,6%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
     <t>70,64%</t>
   </si>
   <si>
@@ -218,9 +1343,6 @@
     <t>78,7%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
     <t>21,78%</t>
   </si>
   <si>
@@ -245,9 +1367,6 @@
     <t>26,01%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
     <t>76,2%</t>
   </si>
   <si>
@@ -269,9 +1388,6 @@
     <t>78,12%</t>
   </si>
   <si>
-    <t>75,79%</t>
-  </si>
-  <si>
     <t>80,93%</t>
   </si>
   <si>
@@ -299,12 +1415,6 @@
     <t>19,07%</t>
   </si>
   <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
     <t>79,08%</t>
   </si>
   <si>
@@ -359,24 +1469,15 @@
     <t>21,05%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
     <t>83,59%</t>
   </si>
   <si>
-    <t>80,92%</t>
-  </si>
-  <si>
     <t>85,71%</t>
   </si>
   <si>
     <t>76,62%</t>
   </si>
   <si>
-    <t>53,09%</t>
-  </si>
-  <si>
     <t>86,56%</t>
   </si>
   <si>
@@ -395,18 +1496,12 @@
     <t>14,29%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
     <t>23,38%</t>
   </si>
   <si>
     <t>13,44%</t>
   </si>
   <si>
-    <t>46,91%</t>
-  </si>
-  <si>
     <t>20,55%</t>
   </si>
   <si>
@@ -468,9 +1563,6 @@
   </si>
   <si>
     <t>27,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
 </sst>
 </file>
@@ -882,7 +1974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D435E0C-4A77-470A-81A9-0681C0FD794B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E93710-BD81-40D5-A23D-2F3B9159A922}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1000,10 +2092,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="D4" s="7">
-        <v>265915</v>
+        <v>153343</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1015,10 +2107,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="I4" s="7">
-        <v>242427</v>
+        <v>173737</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1030,10 +2122,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="N4" s="7">
-        <v>508342</v>
+        <v>327081</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1051,10 +2143,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>53</v>
+        <v>342</v>
       </c>
       <c r="D5" s="7">
-        <v>111764</v>
+        <v>339679</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1066,10 +2158,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>67</v>
+        <v>308</v>
       </c>
       <c r="I5" s="7">
-        <v>112530</v>
+        <v>292692</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1081,10 +2173,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>120</v>
+        <v>650</v>
       </c>
       <c r="N5" s="7">
-        <v>224294</v>
+        <v>632370</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1102,10 +2194,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>172</v>
+        <v>498</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>493022</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1117,10 +2209,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>207</v>
+        <v>488</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>466429</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1132,10 +2224,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>379</v>
+        <v>986</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>959451</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1155,10 +2247,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="D7" s="7">
-        <v>290354</v>
+        <v>309061</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1170,10 +2262,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="I7" s="7">
-        <v>368212</v>
+        <v>305399</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1185,10 +2277,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="N7" s="7">
-        <v>658567</v>
+        <v>614459</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1206,10 +2298,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>94</v>
+        <v>404</v>
       </c>
       <c r="D8" s="7">
-        <v>138042</v>
+        <v>425480</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1221,10 +2313,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="I8" s="7">
-        <v>130365</v>
+        <v>320095</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1236,10 +2328,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>212</v>
+        <v>707</v>
       </c>
       <c r="N8" s="7">
-        <v>268406</v>
+        <v>745575</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1257,10 +2349,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>302</v>
+        <v>702</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>734541</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1272,10 +2364,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>460</v>
+        <v>591</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>625494</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1287,10 +2379,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>762</v>
+        <v>1293</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>1360034</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1310,49 +2402,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>404</v>
+        <v>278</v>
       </c>
       <c r="D10" s="7">
-        <v>414182</v>
+        <v>286074</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>360</v>
+      </c>
+      <c r="I10" s="7">
+        <v>380967</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>659</v>
-      </c>
-      <c r="I10" s="7">
-        <v>456646</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>638</v>
+      </c>
+      <c r="N10" s="7">
+        <v>667041</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>1063</v>
-      </c>
-      <c r="N10" s="7">
-        <v>870828</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1361,49 +2453,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>141</v>
+        <v>334</v>
       </c>
       <c r="D11" s="7">
-        <v>142910</v>
+        <v>351712</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>298</v>
+      </c>
+      <c r="I11" s="7">
+        <v>308777</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>187</v>
-      </c>
-      <c r="I11" s="7">
-        <v>126830</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>632</v>
+      </c>
+      <c r="N11" s="7">
+        <v>660489</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>328</v>
-      </c>
-      <c r="N11" s="7">
-        <v>269740</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1412,10 +2504,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>545</v>
+        <v>612</v>
       </c>
       <c r="D12" s="7">
-        <v>557092</v>
+        <v>637786</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1427,10 +2519,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>846</v>
+        <v>658</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>689744</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1442,10 +2534,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1391</v>
+        <v>1270</v>
       </c>
       <c r="N12" s="7">
-        <v>1140568</v>
+        <v>1327530</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1459,55 +2551,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>496</v>
+        <v>245</v>
       </c>
       <c r="D13" s="7">
-        <v>551653</v>
+        <v>262507</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>301</v>
+      </c>
+      <c r="I13" s="7">
+        <v>309018</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>896</v>
-      </c>
-      <c r="I13" s="7">
-        <v>596987</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>546</v>
+      </c>
+      <c r="N13" s="7">
+        <v>571526</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>1392</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1148640</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,49 +2608,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="D14" s="7">
-        <v>172337</v>
+        <v>256640</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>200</v>
+      </c>
+      <c r="I14" s="7">
+        <v>205648</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>243</v>
-      </c>
-      <c r="I14" s="7">
-        <v>149283</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>439</v>
+      </c>
+      <c r="N14" s="7">
+        <v>462288</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>412</v>
-      </c>
-      <c r="N14" s="7">
-        <v>321620</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1567,10 +2659,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>665</v>
+        <v>484</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>519147</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1582,10 +2674,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1139</v>
+        <v>501</v>
       </c>
       <c r="I15" s="7">
-        <v>746270</v>
+        <v>514666</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1597,10 +2689,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1804</v>
+        <v>985</v>
       </c>
       <c r="N15" s="7">
-        <v>1470260</v>
+        <v>1033814</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1614,55 +2706,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>521</v>
+        <v>215</v>
       </c>
       <c r="D16" s="7">
-        <v>473775</v>
+        <v>213225</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>241</v>
+      </c>
+      <c r="I16" s="7">
+        <v>244930</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>820</v>
-      </c>
-      <c r="I16" s="7">
-        <v>492067</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>456</v>
+      </c>
+      <c r="N16" s="7">
+        <v>458155</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>1341</v>
-      </c>
-      <c r="N16" s="7">
-        <v>965842</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,49 +2763,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="D17" s="7">
-        <v>125305</v>
+        <v>173485</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>155</v>
+      </c>
+      <c r="I17" s="7">
+        <v>159056</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>181</v>
-      </c>
-      <c r="I17" s="7">
-        <v>104453</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>332</v>
+      </c>
+      <c r="N17" s="7">
+        <v>332541</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>322</v>
-      </c>
-      <c r="N17" s="7">
-        <v>229758</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,10 +2814,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>662</v>
+        <v>392</v>
       </c>
       <c r="D18" s="7">
-        <v>599080</v>
+        <v>386710</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1737,10 +2829,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1001</v>
+        <v>396</v>
       </c>
       <c r="I18" s="7">
-        <v>596520</v>
+        <v>403986</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1752,10 +2844,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1663</v>
+        <v>788</v>
       </c>
       <c r="N18" s="7">
-        <v>1195600</v>
+        <v>790696</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1769,55 +2861,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>867</v>
+        <v>340</v>
       </c>
       <c r="D19" s="7">
-        <v>583260</v>
+        <v>327449</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>461</v>
+      </c>
+      <c r="I19" s="7">
+        <v>471559</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="7">
-        <v>1466</v>
-      </c>
-      <c r="I19" s="7">
-        <v>784936</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>801</v>
+      </c>
+      <c r="N19" s="7">
+        <v>799007</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="7">
-        <v>2333</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1368197</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,49 +2918,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D20" s="7">
-        <v>114495</v>
+        <v>175017</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>200</v>
+      </c>
+      <c r="I20" s="7">
+        <v>205283</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="7">
-        <v>238</v>
-      </c>
-      <c r="I20" s="7">
-        <v>239483</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>383</v>
+      </c>
+      <c r="N20" s="7">
+        <v>380301</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="7">
-        <v>399</v>
-      </c>
-      <c r="N20" s="7">
-        <v>353977</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,10 +2969,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>523</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1892,10 +2984,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1704</v>
+        <v>661</v>
       </c>
       <c r="I21" s="7">
-        <v>1024419</v>
+        <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1907,10 +2999,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1184</v>
       </c>
       <c r="N21" s="7">
-        <v>1722174</v>
+        <v>1179308</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1930,49 +3022,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2615</v>
+        <v>1532</v>
       </c>
       <c r="D22" s="7">
-        <v>2579138</v>
+        <v>1551659</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1831</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1885611</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="7">
-        <v>4323</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2941275</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3363</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3437270</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M22" s="7">
-        <v>6938</v>
-      </c>
-      <c r="N22" s="7">
-        <v>5520414</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,49 +3073,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>759</v>
+        <v>1679</v>
       </c>
       <c r="D23" s="7">
-        <v>804853</v>
+        <v>1722012</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>1464</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1491551</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="7">
-        <v>1034</v>
-      </c>
-      <c r="I23" s="7">
-        <v>862943</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>3143</v>
+      </c>
+      <c r="N23" s="7">
+        <v>3213563</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M23" s="7">
-        <v>1793</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1667796</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,6 +3124,3663 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>3211</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3273671</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3295</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3377162</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6506</v>
+      </c>
+      <c r="N24" s="7">
+        <v>6650833</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA71B3F2-66E1-4914-A1CB-621DEB84D1C8}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>207</v>
+      </c>
+      <c r="D4" s="7">
+        <v>213050</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="7">
+        <v>207</v>
+      </c>
+      <c r="I4" s="7">
+        <v>211268</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="7">
+        <v>414</v>
+      </c>
+      <c r="N4" s="7">
+        <v>424318</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>239</v>
+      </c>
+      <c r="D5" s="7">
+        <v>241096</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="7">
+        <v>214</v>
+      </c>
+      <c r="I5" s="7">
+        <v>218962</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M5" s="7">
+        <v>453</v>
+      </c>
+      <c r="N5" s="7">
+        <v>460058</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>446</v>
+      </c>
+      <c r="D6" s="7">
+        <v>454146</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>421</v>
+      </c>
+      <c r="I6" s="7">
+        <v>430230</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>867</v>
+      </c>
+      <c r="N6" s="7">
+        <v>884376</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>332</v>
+      </c>
+      <c r="D7" s="7">
+        <v>341872</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="7">
+        <v>353</v>
+      </c>
+      <c r="I7" s="7">
+        <v>376981</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M7" s="7">
+        <v>685</v>
+      </c>
+      <c r="N7" s="7">
+        <v>718854</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>334</v>
+      </c>
+      <c r="D8" s="7">
+        <v>344256</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="7">
+        <v>217</v>
+      </c>
+      <c r="I8" s="7">
+        <v>232289</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M8" s="7">
+        <v>551</v>
+      </c>
+      <c r="N8" s="7">
+        <v>576544</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>666</v>
+      </c>
+      <c r="D9" s="7">
+        <v>686128</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>570</v>
+      </c>
+      <c r="I9" s="7">
+        <v>609270</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1236</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1295398</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>355</v>
+      </c>
+      <c r="D10" s="7">
+        <v>374689</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="7">
+        <v>448</v>
+      </c>
+      <c r="I10" s="7">
+        <v>472674</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M10" s="7">
+        <v>803</v>
+      </c>
+      <c r="N10" s="7">
+        <v>847363</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>296</v>
+      </c>
+      <c r="D11" s="7">
+        <v>307174</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="7">
+        <v>218</v>
+      </c>
+      <c r="I11" s="7">
+        <v>236998</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M11" s="7">
+        <v>514</v>
+      </c>
+      <c r="N11" s="7">
+        <v>544171</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>651</v>
+      </c>
+      <c r="D12" s="7">
+        <v>681863</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>666</v>
+      </c>
+      <c r="I12" s="7">
+        <v>709672</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1317</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1391534</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>324</v>
+      </c>
+      <c r="D13" s="7">
+        <v>362577</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H13" s="7">
+        <v>383</v>
+      </c>
+      <c r="I13" s="7">
+        <v>434268</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M13" s="7">
+        <v>707</v>
+      </c>
+      <c r="N13" s="7">
+        <v>796845</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>222</v>
+      </c>
+      <c r="D14" s="7">
+        <v>249987</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="7">
+        <v>155</v>
+      </c>
+      <c r="I14" s="7">
+        <v>180870</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M14" s="7">
+        <v>377</v>
+      </c>
+      <c r="N14" s="7">
+        <v>430857</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>546</v>
+      </c>
+      <c r="D15" s="7">
+        <v>612564</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>538</v>
+      </c>
+      <c r="I15" s="7">
+        <v>615138</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1084</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1227702</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>282</v>
+      </c>
+      <c r="D16" s="7">
+        <v>307963</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="7">
+        <v>286</v>
+      </c>
+      <c r="I16" s="7">
+        <v>310256</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M16" s="7">
+        <v>568</v>
+      </c>
+      <c r="N16" s="7">
+        <v>618220</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>111</v>
+      </c>
+      <c r="D17" s="7">
+        <v>121466</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" s="7">
+        <v>120</v>
+      </c>
+      <c r="I17" s="7">
+        <v>137544</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M17" s="7">
+        <v>231</v>
+      </c>
+      <c r="N17" s="7">
+        <v>259009</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>393</v>
+      </c>
+      <c r="D18" s="7">
+        <v>429429</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>406</v>
+      </c>
+      <c r="I18" s="7">
+        <v>447800</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>799</v>
+      </c>
+      <c r="N18" s="7">
+        <v>877229</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>400</v>
+      </c>
+      <c r="D19" s="7">
+        <v>442788</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" s="7">
+        <v>567</v>
+      </c>
+      <c r="I19" s="7">
+        <v>606352</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M19" s="7">
+        <v>967</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1049141</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>114798</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="7">
+        <v>124</v>
+      </c>
+      <c r="I20" s="7">
+        <v>132510</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M20" s="7">
+        <v>226</v>
+      </c>
+      <c r="N20" s="7">
+        <v>247308</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>502</v>
+      </c>
+      <c r="D21" s="7">
+        <v>557586</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>691</v>
+      </c>
+      <c r="I21" s="7">
+        <v>738862</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1193</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1296449</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1900</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2042939</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2244</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2411801</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M22" s="7">
+        <v>4144</v>
+      </c>
+      <c r="N22" s="7">
+        <v>4454740</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1304</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1378777</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1048</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1139171</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2352</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2517949</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3204</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3421716</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3292</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3550972</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6496</v>
+      </c>
+      <c r="N24" s="7">
+        <v>6972689</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC290D5F-6475-4E1C-BCA0-928D349E188B}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>173</v>
+      </c>
+      <c r="D4" s="7">
+        <v>185807</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" s="7">
+        <v>164</v>
+      </c>
+      <c r="I4" s="7">
+        <v>160886</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M4" s="7">
+        <v>337</v>
+      </c>
+      <c r="N4" s="7">
+        <v>346692</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>219</v>
+      </c>
+      <c r="D5" s="7">
+        <v>232669</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" s="7">
+        <v>239</v>
+      </c>
+      <c r="I5" s="7">
+        <v>233873</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M5" s="7">
+        <v>458</v>
+      </c>
+      <c r="N5" s="7">
+        <v>466543</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>392</v>
+      </c>
+      <c r="D6" s="7">
+        <v>418476</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>403</v>
+      </c>
+      <c r="I6" s="7">
+        <v>394759</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>795</v>
+      </c>
+      <c r="N6" s="7">
+        <v>813235</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>262</v>
+      </c>
+      <c r="D7" s="7">
+        <v>271084</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" s="7">
+        <v>276</v>
+      </c>
+      <c r="I7" s="7">
+        <v>270277</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M7" s="7">
+        <v>538</v>
+      </c>
+      <c r="N7" s="7">
+        <v>541361</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>304</v>
+      </c>
+      <c r="D8" s="7">
+        <v>318429</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H8" s="7">
+        <v>303</v>
+      </c>
+      <c r="I8" s="7">
+        <v>293267</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M8" s="7">
+        <v>607</v>
+      </c>
+      <c r="N8" s="7">
+        <v>611696</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>566</v>
+      </c>
+      <c r="D9" s="7">
+        <v>589513</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>579</v>
+      </c>
+      <c r="I9" s="7">
+        <v>563544</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1145</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1153057</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>310</v>
+      </c>
+      <c r="D10" s="7">
+        <v>327299</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H10" s="7">
+        <v>381</v>
+      </c>
+      <c r="I10" s="7">
+        <v>380205</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M10" s="7">
+        <v>691</v>
+      </c>
+      <c r="N10" s="7">
+        <v>707504</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>327</v>
+      </c>
+      <c r="D11" s="7">
+        <v>339974</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="7">
+        <v>283</v>
+      </c>
+      <c r="I11" s="7">
+        <v>279551</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="M11" s="7">
+        <v>610</v>
+      </c>
+      <c r="N11" s="7">
+        <v>619525</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>637</v>
+      </c>
+      <c r="D12" s="7">
+        <v>667273</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>664</v>
+      </c>
+      <c r="I12" s="7">
+        <v>659756</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1301</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1327029</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>315</v>
+      </c>
+      <c r="D13" s="7">
+        <v>352460</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H13" s="7">
+        <v>358</v>
+      </c>
+      <c r="I13" s="7">
+        <v>383827</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="M13" s="7">
+        <v>673</v>
+      </c>
+      <c r="N13" s="7">
+        <v>736287</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>267</v>
+      </c>
+      <c r="D14" s="7">
+        <v>293588</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H14" s="7">
+        <v>243</v>
+      </c>
+      <c r="I14" s="7">
+        <v>264138</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M14" s="7">
+        <v>510</v>
+      </c>
+      <c r="N14" s="7">
+        <v>557726</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>582</v>
+      </c>
+      <c r="D15" s="7">
+        <v>646048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>601</v>
+      </c>
+      <c r="I15" s="7">
+        <v>647965</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1183</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1294013</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>261</v>
+      </c>
+      <c r="D16" s="7">
+        <v>297114</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H16" s="7">
+        <v>283</v>
+      </c>
+      <c r="I16" s="7">
+        <v>323684</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M16" s="7">
+        <v>544</v>
+      </c>
+      <c r="N16" s="7">
+        <v>620797</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>162</v>
+      </c>
+      <c r="D17" s="7">
+        <v>179755</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H17" s="7">
+        <v>150</v>
+      </c>
+      <c r="I17" s="7">
+        <v>173165</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M17" s="7">
+        <v>312</v>
+      </c>
+      <c r="N17" s="7">
+        <v>352921</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>423</v>
+      </c>
+      <c r="D18" s="7">
+        <v>476869</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>433</v>
+      </c>
+      <c r="I18" s="7">
+        <v>496849</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>856</v>
+      </c>
+      <c r="N18" s="7">
+        <v>973718</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>439</v>
+      </c>
+      <c r="D19" s="7">
+        <v>411855</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H19" s="7">
+        <v>484</v>
+      </c>
+      <c r="I19" s="7">
+        <v>577436</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="M19" s="7">
+        <v>923</v>
+      </c>
+      <c r="N19" s="7">
+        <v>989290</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>186</v>
+      </c>
+      <c r="D20" s="7">
+        <v>177516</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H20" s="7">
+        <v>169</v>
+      </c>
+      <c r="I20" s="7">
+        <v>198404</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="M20" s="7">
+        <v>355</v>
+      </c>
+      <c r="N20" s="7">
+        <v>375921</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>625</v>
+      </c>
+      <c r="D21" s="7">
+        <v>589371</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>653</v>
+      </c>
+      <c r="I21" s="7">
+        <v>775840</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1278</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1365211</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1760</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1845619</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1946</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2096313</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="M22" s="7">
+        <v>3706</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3941932</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1465</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1541931</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1387</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1442399</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2852</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2984331</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3225</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3387550</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3333</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3538712</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6558</v>
+      </c>
+      <c r="N24" s="7">
+        <v>6926263</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92C337D-92DD-49E2-8BCF-2EAB4346DF6D}">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>119</v>
+      </c>
+      <c r="D4" s="7">
+        <v>265915</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H4" s="7">
+        <v>140</v>
+      </c>
+      <c r="I4" s="7">
+        <v>242427</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M4" s="7">
+        <v>259</v>
+      </c>
+      <c r="N4" s="7">
+        <v>508342</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>53</v>
+      </c>
+      <c r="D5" s="7">
+        <v>111764</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H5" s="7">
+        <v>67</v>
+      </c>
+      <c r="I5" s="7">
+        <v>112530</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="M5" s="7">
+        <v>120</v>
+      </c>
+      <c r="N5" s="7">
+        <v>224294</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>172</v>
+      </c>
+      <c r="D6" s="7">
+        <v>377679</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>207</v>
+      </c>
+      <c r="I6" s="7">
+        <v>354957</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>379</v>
+      </c>
+      <c r="N6" s="7">
+        <v>732636</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>208</v>
+      </c>
+      <c r="D7" s="7">
+        <v>290354</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H7" s="7">
+        <v>342</v>
+      </c>
+      <c r="I7" s="7">
+        <v>368212</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="M7" s="7">
+        <v>550</v>
+      </c>
+      <c r="N7" s="7">
+        <v>658567</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>94</v>
+      </c>
+      <c r="D8" s="7">
+        <v>138042</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H8" s="7">
+        <v>118</v>
+      </c>
+      <c r="I8" s="7">
+        <v>130365</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M8" s="7">
+        <v>212</v>
+      </c>
+      <c r="N8" s="7">
+        <v>268406</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>302</v>
+      </c>
+      <c r="D9" s="7">
+        <v>428396</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>460</v>
+      </c>
+      <c r="I9" s="7">
+        <v>498577</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>762</v>
+      </c>
+      <c r="N9" s="7">
+        <v>926973</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>404</v>
+      </c>
+      <c r="D10" s="7">
+        <v>414182</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H10" s="7">
+        <v>659</v>
+      </c>
+      <c r="I10" s="7">
+        <v>456646</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1063</v>
+      </c>
+      <c r="N10" s="7">
+        <v>870828</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>141</v>
+      </c>
+      <c r="D11" s="7">
+        <v>142910</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H11" s="7">
+        <v>187</v>
+      </c>
+      <c r="I11" s="7">
+        <v>126830</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="M11" s="7">
+        <v>328</v>
+      </c>
+      <c r="N11" s="7">
+        <v>269740</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>545</v>
+      </c>
+      <c r="D12" s="7">
+        <v>557092</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>846</v>
+      </c>
+      <c r="I12" s="7">
+        <v>583476</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1391</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1140568</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>496</v>
+      </c>
+      <c r="D13" s="7">
+        <v>551653</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H13" s="7">
+        <v>896</v>
+      </c>
+      <c r="I13" s="7">
+        <v>596987</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1392</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1148640</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>169</v>
+      </c>
+      <c r="D14" s="7">
+        <v>172337</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H14" s="7">
+        <v>243</v>
+      </c>
+      <c r="I14" s="7">
+        <v>149283</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="M14" s="7">
+        <v>412</v>
+      </c>
+      <c r="N14" s="7">
+        <v>321620</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>665</v>
+      </c>
+      <c r="D15" s="7">
+        <v>723990</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1139</v>
+      </c>
+      <c r="I15" s="7">
+        <v>746270</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1804</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1470260</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>521</v>
+      </c>
+      <c r="D16" s="7">
+        <v>473775</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H16" s="7">
+        <v>820</v>
+      </c>
+      <c r="I16" s="7">
+        <v>492067</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1341</v>
+      </c>
+      <c r="N16" s="7">
+        <v>965842</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>141</v>
+      </c>
+      <c r="D17" s="7">
+        <v>125305</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="H17" s="7">
+        <v>181</v>
+      </c>
+      <c r="I17" s="7">
+        <v>104453</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="M17" s="7">
+        <v>322</v>
+      </c>
+      <c r="N17" s="7">
+        <v>229758</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>662</v>
+      </c>
+      <c r="D18" s="7">
+        <v>599080</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1001</v>
+      </c>
+      <c r="I18" s="7">
+        <v>596520</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1663</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1195600</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>867</v>
+      </c>
+      <c r="D19" s="7">
+        <v>583260</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1466</v>
+      </c>
+      <c r="I19" s="7">
+        <v>784936</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="M19" s="7">
+        <v>2333</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1368197</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>161</v>
+      </c>
+      <c r="D20" s="7">
+        <v>114495</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H20" s="7">
+        <v>238</v>
+      </c>
+      <c r="I20" s="7">
+        <v>239483</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" s="7">
+        <v>399</v>
+      </c>
+      <c r="N20" s="7">
+        <v>353977</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1028</v>
+      </c>
+      <c r="D21" s="7">
+        <v>697755</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1704</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1024419</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="7">
+        <v>2732</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1722174</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2615</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2579138</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4323</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2941275</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="M22" s="7">
+        <v>6938</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5520414</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>759</v>
+      </c>
+      <c r="D23" s="7">
+        <v>804853</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1034</v>
+      </c>
+      <c r="I23" s="7">
+        <v>862943</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1793</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1667796</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
         <v>3374</v>
       </c>
       <c r="D24" s="7">
@@ -2079,7 +6828,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B_4_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B_4_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5B97307-274F-47BB-BECE-CD0217AEEC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2270EDD2-26B8-4997-AB96-26C1B87CF31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{905A9E16-0F43-4860-8CDB-C1CCD2B774B7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4659D5B2-6175-4F51-AFE8-25655989F710}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,25 +77,25 @@
     <t>31,1%</t>
   </si>
   <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
   </si>
   <si>
     <t>34,09%</t>
   </si>
   <si>
-    <t>31,21%</t>
+    <t>31,45%</t>
   </si>
   <si>
     <t>37,09%</t>
@@ -107,19 +107,19 @@
     <t>68,9%</t>
   </si>
   <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
   </si>
   <si>
     <t>65,91%</t>
@@ -128,7 +128,7 @@
     <t>62,91%</t>
   </si>
   <si>
-    <t>68,79%</t>
+    <t>68,55%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1273 +140,1258 @@
     <t>42,08%</t>
   </si>
   <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
   </si>
   <si>
     <t>48,83%</t>
   </si>
   <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
     <t>44,85%</t>
   </si>
   <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
   </si>
   <si>
     <t>55,15%</t>
   </si>
   <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
   </si>
   <si>
     <t>51,32%</t>
   </si>
   <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
   </si>
   <si>
     <t>48,68%</t>
   </si>
   <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
   </si>
   <si>
     <t>58,73%</t>
   </si>
   <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
   </si>
   <si>
     <t>41,27%</t>
   </si>
   <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume frutas a diario en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
   </si>
   <si>
     <t>58,07%</t>
   </si>
   <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
   </si>
   <si>
     <t>41,93%</t>
   </si>
   <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
   </si>
   <si>
     <t>74,35%</t>
   </si>
   <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
   </si>
   <si>
     <t>25,65%</t>
   </si>
   <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>21,39%</t>
   </si>
   <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>Población que consume frutas a diario en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>Población que consume frutas a diario en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>26,3%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
   </si>
   <si>
     <t>80,0%</t>
   </si>
   <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
   </si>
   <si>
     <t>78,12%</t>
   </si>
   <si>
+    <t>75,84%</t>
+  </si>
+  <si>
     <t>80,93%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
   </si>
   <si>
     <t>20,0%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
   </si>
   <si>
     <t>21,88%</t>
@@ -1415,106 +1400,121 @@
     <t>19,07%</t>
   </si>
   <si>
+    <t>24,16%</t>
+  </si>
+  <si>
     <t>79,08%</t>
   </si>
   <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
   </si>
   <si>
     <t>82,49%</t>
   </si>
   <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
   </si>
   <si>
     <t>80,78%</t>
   </si>
   <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
   </si>
   <si>
     <t>20,92%</t>
   </si>
   <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
   </si>
   <si>
     <t>17,51%</t>
   </si>
   <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
   <si>
     <t>83,59%</t>
   </si>
   <si>
-    <t>85,71%</t>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
   </si>
   <si>
     <t>76,62%</t>
   </si>
   <si>
-    <t>86,56%</t>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
   <si>
     <t>79,45%</t>
   </si>
   <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
   </si>
   <si>
     <t>16,41%</t>
   </si>
   <si>
-    <t>14,29%</t>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>13,44%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
   </si>
   <si>
     <t>20,55%</t>
   </si>
   <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
   </si>
   <si>
     <t>76,22%</t>
   </si>
   <si>
-    <t>74,28%</t>
+    <t>74,44%</t>
   </si>
   <si>
     <t>77,95%</t>
@@ -1523,19 +1523,19 @@
     <t>77,32%</t>
   </si>
   <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
   </si>
   <si>
     <t>76,8%</t>
   </si>
   <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
   </si>
   <si>
     <t>23,78%</t>
@@ -1544,25 +1544,25 @@
     <t>22,05%</t>
   </si>
   <si>
-    <t>25,72%</t>
+    <t>25,56%</t>
   </si>
   <si>
     <t>22,68%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>23,2%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
   </si>
 </sst>
 </file>
@@ -1974,7 +1974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E93710-BD81-40D5-A23D-2F3B9159A922}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1854ADA3-2B1B-4D22-9852-1F3B787534E7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2408,13 +2408,13 @@
         <v>286074</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>360</v>
@@ -2423,13 +2423,13 @@
         <v>380967</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>638</v>
@@ -2438,13 +2438,13 @@
         <v>667041</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2459,13 @@
         <v>351712</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>298</v>
@@ -2474,13 +2474,13 @@
         <v>308777</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>632</v>
@@ -2489,13 +2489,13 @@
         <v>660489</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,7 +2551,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2563,13 +2563,13 @@
         <v>262507</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>301</v>
@@ -2578,13 +2578,13 @@
         <v>309018</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>546</v>
@@ -2593,13 +2593,13 @@
         <v>571526</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,13 +2614,13 @@
         <v>256640</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>200</v>
@@ -2629,13 +2629,13 @@
         <v>205648</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>439</v>
@@ -2644,13 +2644,13 @@
         <v>462288</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,7 +2706,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2718,13 +2718,13 @@
         <v>213225</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>241</v>
@@ -2733,13 +2733,13 @@
         <v>244930</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>456</v>
@@ -2748,13 +2748,13 @@
         <v>458155</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,7 +2769,7 @@
         <v>173485</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>97</v>
@@ -3193,7 +3193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA71B3F2-66E1-4914-A1CB-621DEB84D1C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0759907-1435-4B09-BE40-D853A8804390}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3535,7 +3535,7 @@
         <v>217</v>
       </c>
       <c r="I8" s="7">
-        <v>232289</v>
+        <v>232288</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>174</v>
@@ -3586,7 +3586,7 @@
         <v>570</v>
       </c>
       <c r="I9" s="7">
-        <v>609270</v>
+        <v>609269</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3770,7 +3770,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3970,10 +3970,10 @@
         <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3988,13 @@
         <v>121466</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>120</v>
@@ -4003,13 +4003,13 @@
         <v>137544</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>231</v>
@@ -4018,13 +4018,13 @@
         <v>259009</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,28 +4092,28 @@
         <v>442788</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>567</v>
       </c>
       <c r="I19" s="7">
-        <v>606352</v>
+        <v>606353</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>967</v>
@@ -4122,13 +4122,13 @@
         <v>1049141</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4143,13 @@
         <v>114798</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>124</v>
@@ -4158,13 +4158,13 @@
         <v>132510</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>226</v>
@@ -4173,13 +4173,13 @@
         <v>247308</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,7 +4206,7 @@
         <v>691</v>
       </c>
       <c r="I21" s="7">
-        <v>738862</v>
+        <v>738863</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4244,16 +4244,16 @@
         <v>1900</v>
       </c>
       <c r="D22" s="7">
-        <v>2042939</v>
+        <v>2042940</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>2244</v>
@@ -4262,13 +4262,13 @@
         <v>2411801</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>4144</v>
@@ -4277,13 +4277,13 @@
         <v>4454740</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4298,13 @@
         <v>1378777</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>1048</v>
@@ -4313,13 +4313,13 @@
         <v>1139171</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>2352</v>
@@ -4328,13 +4328,13 @@
         <v>2517949</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,7 +4346,7 @@
         <v>3204</v>
       </c>
       <c r="D24" s="7">
-        <v>3421716</v>
+        <v>3421717</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4412,7 +4412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC290D5F-6475-4E1C-BCA0-928D349E188B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080A41C1-8323-4AFB-9097-3C36422E175A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4429,7 +4429,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4536,13 +4536,13 @@
         <v>185807</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>97</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>164</v>
@@ -4551,13 +4551,13 @@
         <v>160886</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
         <v>337</v>
@@ -4566,13 +4566,13 @@
         <v>346692</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4587,13 @@
         <v>232669</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
         <v>239</v>
@@ -4602,13 +4602,13 @@
         <v>233873</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>458</v>
@@ -4617,13 +4617,13 @@
         <v>466543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4691,13 @@
         <v>271084</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>276</v>
@@ -4706,13 +4706,13 @@
         <v>270277</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>538</v>
@@ -4721,13 +4721,13 @@
         <v>541361</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4742,13 @@
         <v>318429</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>128</v>
+        <v>293</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7">
         <v>303</v>
@@ -4757,13 +4757,13 @@
         <v>293267</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M8" s="7">
         <v>607</v>
@@ -4772,13 +4772,13 @@
         <v>611696</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>59</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4846,13 @@
         <v>327299</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>78</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>381</v>
@@ -4861,13 +4861,13 @@
         <v>380205</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>308</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>691</v>
@@ -4876,13 +4876,13 @@
         <v>707504</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4897,13 @@
         <v>339974</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>283</v>
@@ -4912,13 +4912,13 @@
         <v>279551</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>125</v>
       </c>
       <c r="M11" s="7">
         <v>610</v>
@@ -4927,13 +4927,13 @@
         <v>619525</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,7 +4989,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5001,13 +5001,13 @@
         <v>352460</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H13" s="7">
         <v>358</v>
@@ -5016,13 +5016,13 @@
         <v>383827</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M13" s="7">
         <v>673</v>
@@ -5031,13 +5031,13 @@
         <v>736287</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5052,13 @@
         <v>293588</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -5067,13 +5067,13 @@
         <v>264138</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>510</v>
@@ -5082,13 +5082,13 @@
         <v>557726</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,7 +5144,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5156,13 +5156,13 @@
         <v>297114</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
         <v>283</v>
@@ -5171,13 +5171,13 @@
         <v>323684</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M16" s="7">
         <v>544</v>
@@ -5186,13 +5186,13 @@
         <v>620797</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5207,13 @@
         <v>179755</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H17" s="7">
         <v>150</v>
@@ -5222,13 +5222,13 @@
         <v>173165</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>312</v>
@@ -5237,13 +5237,13 @@
         <v>352921</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5311,13 @@
         <v>411855</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H19" s="7">
         <v>484</v>
@@ -5326,13 +5326,13 @@
         <v>577436</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M19" s="7">
         <v>923</v>
@@ -5341,13 +5341,13 @@
         <v>989290</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5362,13 @@
         <v>177516</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H20" s="7">
         <v>169</v>
@@ -5377,13 +5377,13 @@
         <v>198404</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M20" s="7">
         <v>355</v>
@@ -5392,13 +5392,13 @@
         <v>375921</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5466,13 @@
         <v>1845619</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
         <v>1946</v>
@@ -5481,13 +5481,13 @@
         <v>2096313</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>376</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="M22" s="7">
         <v>3706</v>
@@ -5496,13 +5496,13 @@
         <v>3941932</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5517,13 @@
         <v>1541931</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H23" s="7">
         <v>1387</v>
@@ -5532,13 +5532,13 @@
         <v>1442399</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>145</v>
       </c>
       <c r="M23" s="7">
         <v>2852</v>
@@ -5547,13 +5547,13 @@
         <v>2984331</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,7 +5631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92C337D-92DD-49E2-8BCF-2EAB4346DF6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024F5E44-0DD1-4806-88EB-2C1F92BBC546}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5648,7 +5648,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5755,13 +5755,13 @@
         <v>265915</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H4" s="7">
         <v>140</v>
@@ -5770,13 +5770,13 @@
         <v>242427</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="M4" s="7">
         <v>259</v>
@@ -5785,13 +5785,13 @@
         <v>508342</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5806,13 @@
         <v>111764</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
@@ -5821,13 +5821,13 @@
         <v>112530</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="M5" s="7">
         <v>120</v>
@@ -5836,13 +5836,13 @@
         <v>224294</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5910,13 @@
         <v>290354</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="H7" s="7">
         <v>342</v>
@@ -5925,13 +5925,13 @@
         <v>368212</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="M7" s="7">
         <v>550</v>
@@ -5940,13 +5940,13 @@
         <v>658567</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5961,13 @@
         <v>138042</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="H8" s="7">
         <v>118</v>
@@ -5976,13 +5976,13 @@
         <v>130365</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="M8" s="7">
         <v>212</v>
@@ -5991,13 +5991,13 @@
         <v>268406</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6065,13 @@
         <v>414182</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>418</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="H10" s="7">
         <v>659</v>
@@ -6080,13 +6080,13 @@
         <v>456646</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="M10" s="7">
         <v>1063</v>
@@ -6095,13 +6095,13 @@
         <v>870828</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6116,13 @@
         <v>142910</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>427</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="H11" s="7">
         <v>187</v>
@@ -6131,13 +6131,13 @@
         <v>126830</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M11" s="7">
         <v>328</v>
@@ -6146,13 +6146,13 @@
         <v>269740</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,7 +6208,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6220,13 +6220,13 @@
         <v>551653</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H13" s="7">
         <v>896</v>
@@ -6235,13 +6235,13 @@
         <v>596987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M13" s="7">
         <v>1392</v>
@@ -6250,13 +6250,13 @@
         <v>1148640</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>443</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6271,13 @@
         <v>172337</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -6286,13 +6286,13 @@
         <v>149283</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M14" s="7">
         <v>412</v>
@@ -6301,13 +6301,13 @@
         <v>321620</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,7 +6363,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6375,13 +6375,13 @@
         <v>473775</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H16" s="7">
         <v>820</v>
@@ -6390,13 +6390,13 @@
         <v>492067</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M16" s="7">
         <v>1341</v>
@@ -6405,13 +6405,13 @@
         <v>965842</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6426,13 @@
         <v>125305</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H17" s="7">
         <v>181</v>
@@ -6441,13 +6441,13 @@
         <v>104453</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M17" s="7">
         <v>322</v>
@@ -6456,13 +6456,13 @@
         <v>229758</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6530,13 @@
         <v>583260</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>240</v>
+        <v>473</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H19" s="7">
         <v>1466</v>
@@ -6545,13 +6545,13 @@
         <v>784936</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>153</v>
+        <v>476</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M19" s="7">
         <v>2333</v>
@@ -6560,13 +6560,13 @@
         <v>1368197</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,16 +6578,16 @@
         <v>161</v>
       </c>
       <c r="D20" s="7">
-        <v>114495</v>
+        <v>114494</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H20" s="7">
         <v>238</v>
@@ -6596,13 +6596,13 @@
         <v>239483</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>399</v>
@@ -6629,7 +6629,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P36B_4_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B_4_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2270EDD2-26B8-4997-AB96-26C1B87CF31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97778B61-7705-4A5A-A117-6321E3FD5889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4659D5B2-6175-4F51-AFE8-25655989F710}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{409EBE95-E32E-46B8-BDC1-9CBCFE32ED48}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="575">
   <si>
     <t>Población que consume frutas a diario en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>42,08%</t>
@@ -191,7 +191,7 @@
     <t>57,5%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>44,85%</t>
@@ -248,7 +248,7 @@
     <t>52,41%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>50,57%</t>
@@ -305,7 +305,7 @@
     <t>47,86%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>49,67%</t>
@@ -356,61 +356,118 @@
     <t>45,73%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
   </si>
   <si>
     <t>47,4%</t>
@@ -737,409 +794,517 @@
     <t>26,49%</t>
   </si>
   <si>
-    <t>79,41%</t>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>Población que consume frutas a diario en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
   </si>
   <si>
     <t>75,53%</t>
   </si>
   <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
   </si>
   <si>
     <t>24,47%</t>
   </si>
   <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>Población que consume frutas a diario en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
   </si>
   <si>
     <t>54,48%</t>
@@ -1187,382 +1352,418 @@
     <t>Población que consume frutas a diario en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
   </si>
   <si>
     <t>69,39%</t>
   </si>
   <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
   </si>
   <si>
     <t>30,61%</t>
   </si>
   <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
   </si>
   <si>
     <t>81,08%</t>
   </si>
   <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
   </si>
 </sst>
 </file>
@@ -1974,8 +2175,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1854ADA3-2B1B-4D22-9852-1F3B787534E7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DBD905-7C39-4641-BAD2-59A099AD975F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2590,7 +2791,7 @@
         <v>546</v>
       </c>
       <c r="N13" s="7">
-        <v>571526</v>
+        <v>571525</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2692,7 +2893,7 @@
         <v>985</v>
       </c>
       <c r="N15" s="7">
-        <v>1033814</v>
+        <v>1033813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2867,10 +3068,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>340</v>
+        <v>198</v>
       </c>
       <c r="D19" s="7">
-        <v>327449</v>
+        <v>190740</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2882,10 +3083,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>461</v>
+        <v>258</v>
       </c>
       <c r="I19" s="7">
-        <v>471559</v>
+        <v>237604</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2897,10 +3098,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>801</v>
+        <v>456</v>
       </c>
       <c r="N19" s="7">
-        <v>799007</v>
+        <v>428344</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2918,10 +3119,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="D20" s="7">
-        <v>175017</v>
+        <v>101843</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2933,10 +3134,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="I20" s="7">
-        <v>205283</v>
+        <v>105330</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2948,10 +3149,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>383</v>
+        <v>218</v>
       </c>
       <c r="N20" s="7">
-        <v>380301</v>
+        <v>207173</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2969,10 +3170,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2984,10 +3185,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2999,10 +3200,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3016,55 +3217,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1532</v>
+        <v>142</v>
       </c>
       <c r="D22" s="7">
-        <v>1551659</v>
+        <v>136709</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>1831</v>
+        <v>203</v>
       </c>
       <c r="I22" s="7">
-        <v>1885611</v>
+        <v>233955</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>3363</v>
+        <v>345</v>
       </c>
       <c r="N22" s="7">
-        <v>3437270</v>
+        <v>370664</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,49 +3274,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1679</v>
+        <v>78</v>
       </c>
       <c r="D23" s="7">
-        <v>1722012</v>
+        <v>73174</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>1464</v>
+        <v>87</v>
       </c>
       <c r="I23" s="7">
-        <v>1491551</v>
+        <v>99953</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>3143</v>
+        <v>165</v>
       </c>
       <c r="N23" s="7">
-        <v>3213563</v>
+        <v>173127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,63 +3325,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1532</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1551659</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1831</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1885611</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3363</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3437270</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1679</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1722012</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1464</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1491551</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3143</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3213563</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3211</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3273671</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3377162</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6506</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6650833</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3193,8 +3550,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0759907-1435-4B09-BE40-D853A8804390}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F23FDFC-4E85-4240-99BD-84254EA69F47}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3210,7 +3567,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3317,13 +3674,13 @@
         <v>213050</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>207</v>
@@ -3332,13 +3689,13 @@
         <v>211268</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>414</v>
@@ -3347,13 +3704,13 @@
         <v>424318</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3725,13 @@
         <v>241096</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>214</v>
@@ -3383,13 +3740,13 @@
         <v>218962</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>453</v>
@@ -3398,13 +3755,13 @@
         <v>460058</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3829,13 @@
         <v>341872</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>353</v>
@@ -3487,13 +3844,13 @@
         <v>376981</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>685</v>
@@ -3502,13 +3859,13 @@
         <v>718854</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3880,13 @@
         <v>344256</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>217</v>
@@ -3538,13 +3895,13 @@
         <v>232288</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>551</v>
@@ -3553,13 +3910,13 @@
         <v>576544</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3984,13 @@
         <v>374689</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>448</v>
@@ -3642,13 +3999,13 @@
         <v>472674</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>803</v>
@@ -3657,13 +4014,13 @@
         <v>847363</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +4035,13 @@
         <v>307174</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>218</v>
@@ -3693,13 +4050,13 @@
         <v>236998</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>514</v>
@@ -3708,13 +4065,13 @@
         <v>544171</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +4139,13 @@
         <v>362577</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>383</v>
@@ -3797,13 +4154,13 @@
         <v>434268</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>707</v>
@@ -3812,13 +4169,13 @@
         <v>796845</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +4190,13 @@
         <v>249987</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>155</v>
@@ -3848,28 +4205,28 @@
         <v>180870</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>377</v>
       </c>
       <c r="N14" s="7">
-        <v>430857</v>
+        <v>430858</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,7 +4268,7 @@
         <v>1084</v>
       </c>
       <c r="N15" s="7">
-        <v>1227702</v>
+        <v>1227703</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3937,13 +4294,13 @@
         <v>307963</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>286</v>
@@ -3952,13 +4309,13 @@
         <v>310256</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>568</v>
@@ -3967,13 +4324,13 @@
         <v>618220</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +4345,13 @@
         <v>121466</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
         <v>120</v>
@@ -4003,13 +4360,13 @@
         <v>137544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>231</v>
@@ -4018,10 +4375,10 @@
         <v>259009</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>15</v>
@@ -4086,49 +4443,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>400</v>
+        <v>218</v>
       </c>
       <c r="D19" s="7">
-        <v>442788</v>
+        <v>239997</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
-        <v>567</v>
+        <v>279</v>
       </c>
       <c r="I19" s="7">
-        <v>606353</v>
+        <v>287778</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
-        <v>967</v>
+        <v>497</v>
       </c>
       <c r="N19" s="7">
-        <v>1049141</v>
+        <v>527775</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,49 +4494,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D20" s="7">
-        <v>114798</v>
+        <v>68807</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="I20" s="7">
-        <v>132510</v>
+        <v>66218</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="N20" s="7">
-        <v>247308</v>
+        <v>135025</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,10 +4545,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>502</v>
+        <v>281</v>
       </c>
       <c r="D21" s="7">
-        <v>557586</v>
+        <v>308804</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4203,10 +4560,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>691</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>738863</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4218,10 +4575,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1193</v>
+        <v>625</v>
       </c>
       <c r="N21" s="7">
-        <v>1296449</v>
+        <v>662800</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4235,55 +4592,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1900</v>
+        <v>182</v>
       </c>
       <c r="D22" s="7">
-        <v>2042940</v>
+        <v>202790</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
-        <v>2244</v>
+        <v>288</v>
       </c>
       <c r="I22" s="7">
-        <v>2411801</v>
+        <v>318576</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
-        <v>4144</v>
+        <v>470</v>
       </c>
       <c r="N22" s="7">
-        <v>4454740</v>
+        <v>521366</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,49 +4649,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1304</v>
+        <v>39</v>
       </c>
       <c r="D23" s="7">
-        <v>1378777</v>
+        <v>45992</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
-        <v>1048</v>
+        <v>59</v>
       </c>
       <c r="I23" s="7">
-        <v>1139171</v>
+        <v>66291</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
-        <v>2352</v>
+        <v>98</v>
       </c>
       <c r="N23" s="7">
-        <v>2517949</v>
+        <v>112283</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,63 +4700,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>248782</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>347</v>
+      </c>
+      <c r="I24" s="7">
+        <v>384867</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>568</v>
+      </c>
+      <c r="N24" s="7">
+        <v>633649</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1900</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2042940</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2244</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2411801</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4144</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4454740</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1304</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1378777</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1048</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1139171</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2352</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2517949</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3204</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3421717</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3292</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3550972</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6496</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6972689</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4412,8 +4925,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080A41C1-8323-4AFB-9097-3C36422E175A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D85BF9-C12C-4A03-9D85-C41F4EFD547D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4429,7 +4942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4536,13 +5049,13 @@
         <v>185807</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="H4" s="7">
         <v>164</v>
@@ -4551,13 +5064,13 @@
         <v>160886</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="M4" s="7">
         <v>337</v>
@@ -4566,13 +5079,13 @@
         <v>346692</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,10 +5100,10 @@
         <v>232669</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>90</v>
@@ -4602,13 +5115,13 @@
         <v>233873</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>458</v>
@@ -4617,13 +5130,13 @@
         <v>466543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +5204,13 @@
         <v>271084</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>276</v>
@@ -4706,13 +5219,13 @@
         <v>270277</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>538</v>
@@ -4724,10 +5237,10 @@
         <v>67</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +5255,13 @@
         <v>318429</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>303</v>
@@ -4757,13 +5270,13 @@
         <v>293267</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>607</v>
@@ -4775,10 +5288,10 @@
         <v>59</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +5359,13 @@
         <v>327299</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>381</v>
@@ -4861,13 +5374,13 @@
         <v>380205</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="M10" s="7">
         <v>691</v>
@@ -4876,13 +5389,13 @@
         <v>707504</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +5410,13 @@
         <v>339974</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="H11" s="7">
         <v>283</v>
@@ -4912,13 +5425,13 @@
         <v>279551</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="M11" s="7">
         <v>610</v>
@@ -4927,10 +5440,10 @@
         <v>619525</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>79</v>
@@ -5001,13 +5514,13 @@
         <v>352460</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="H13" s="7">
         <v>358</v>
@@ -5016,13 +5529,13 @@
         <v>383827</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="M13" s="7">
         <v>673</v>
@@ -5031,13 +5544,13 @@
         <v>736287</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5565,13 @@
         <v>293588</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
@@ -5067,13 +5580,13 @@
         <v>264138</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>510</v>
@@ -5082,13 +5595,13 @@
         <v>557726</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5669,13 @@
         <v>297114</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>283</v>
@@ -5171,13 +5684,13 @@
         <v>323684</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="M16" s="7">
         <v>544</v>
@@ -5186,13 +5699,13 @@
         <v>620797</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5720,13 @@
         <v>179755</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>150</v>
@@ -5222,13 +5735,13 @@
         <v>173165</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>312</v>
@@ -5237,13 +5750,13 @@
         <v>352921</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,49 +5818,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>439</v>
+        <v>226</v>
       </c>
       <c r="D19" s="7">
-        <v>411855</v>
+        <v>231591</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
-        <v>484</v>
+        <v>257</v>
       </c>
       <c r="I19" s="7">
-        <v>577436</v>
+        <v>275199</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="M19" s="7">
-        <v>923</v>
+        <v>483</v>
       </c>
       <c r="N19" s="7">
-        <v>989290</v>
+        <v>506790</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,49 +5869,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="D20" s="7">
-        <v>177516</v>
+        <v>101680</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="H20" s="7">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="I20" s="7">
-        <v>198404</v>
+        <v>100472</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="M20" s="7">
-        <v>355</v>
+        <v>193</v>
       </c>
       <c r="N20" s="7">
-        <v>375921</v>
+        <v>202152</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,10 +5920,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>625</v>
+        <v>324</v>
       </c>
       <c r="D21" s="7">
-        <v>589371</v>
+        <v>333271</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5422,10 +5935,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>653</v>
+        <v>352</v>
       </c>
       <c r="I21" s="7">
-        <v>775840</v>
+        <v>375671</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5437,10 +5950,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1278</v>
+        <v>676</v>
       </c>
       <c r="N21" s="7">
-        <v>1365211</v>
+        <v>708942</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5454,55 +5967,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1760</v>
+        <v>213</v>
       </c>
       <c r="D22" s="7">
-        <v>1845619</v>
+        <v>180264</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="H22" s="7">
-        <v>1946</v>
+        <v>227</v>
       </c>
       <c r="I22" s="7">
-        <v>2096313</v>
+        <v>302237</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>279</v>
+        <v>407</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>408</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="M22" s="7">
-        <v>3706</v>
+        <v>440</v>
       </c>
       <c r="N22" s="7">
-        <v>3941932</v>
+        <v>482501</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,49 +6024,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1465</v>
+        <v>88</v>
       </c>
       <c r="D23" s="7">
-        <v>1541931</v>
+        <v>75836</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="H23" s="7">
-        <v>1387</v>
+        <v>74</v>
       </c>
       <c r="I23" s="7">
-        <v>1442399</v>
+        <v>97932</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>271</v>
+        <v>416</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>418</v>
       </c>
       <c r="M23" s="7">
-        <v>2852</v>
+        <v>162</v>
       </c>
       <c r="N23" s="7">
-        <v>2984331</v>
+        <v>173768</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,63 +6075,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>301</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256100</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>602</v>
+      </c>
+      <c r="N24" s="7">
+        <v>656269</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1760</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1845619</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1946</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2096313</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3706</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3941932</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1465</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1541931</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1387</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1442399</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2852</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2984331</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3225</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3387550</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3333</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3538712</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6558</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6926263</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5631,8 +6300,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024F5E44-0DD1-4806-88EB-2C1F92BBC546}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76D5434-D805-4975-ACC8-5C46B69DA930}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5648,7 +6317,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5752,46 +6421,46 @@
         <v>119</v>
       </c>
       <c r="D4" s="7">
-        <v>265915</v>
+        <v>275168</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>140</v>
       </c>
       <c r="I4" s="7">
-        <v>242427</v>
+        <v>207758</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>385</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="M4" s="7">
         <v>259</v>
       </c>
       <c r="N4" s="7">
-        <v>508342</v>
+        <v>482926</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,46 +6472,46 @@
         <v>53</v>
       </c>
       <c r="D5" s="7">
-        <v>111764</v>
+        <v>124819</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>392</v>
+        <v>280</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="H5" s="7">
         <v>67</v>
       </c>
       <c r="I5" s="7">
-        <v>112530</v>
+        <v>105442</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>394</v>
+        <v>301</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="M5" s="7">
         <v>120</v>
       </c>
       <c r="N5" s="7">
-        <v>224294</v>
+        <v>230261</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>399</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,7 +6523,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5869,7 +6538,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5884,7 +6553,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5907,46 +6576,46 @@
         <v>208</v>
       </c>
       <c r="D7" s="7">
-        <v>290354</v>
+        <v>282002</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>402</v>
+        <v>453</v>
       </c>
       <c r="H7" s="7">
         <v>342</v>
       </c>
       <c r="I7" s="7">
-        <v>368212</v>
+        <v>387119</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="M7" s="7">
         <v>550</v>
       </c>
       <c r="N7" s="7">
-        <v>658567</v>
+        <v>669121</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,46 +6627,46 @@
         <v>94</v>
       </c>
       <c r="D8" s="7">
-        <v>138042</v>
+        <v>141545</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="H8" s="7">
         <v>118</v>
       </c>
       <c r="I8" s="7">
-        <v>130365</v>
+        <v>124385</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="M8" s="7">
         <v>212</v>
       </c>
       <c r="N8" s="7">
-        <v>268406</v>
+        <v>265930</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,7 +6678,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6024,7 +6693,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6039,7 +6708,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6062,46 +6731,46 @@
         <v>404</v>
       </c>
       <c r="D10" s="7">
-        <v>414182</v>
+        <v>393937</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="H10" s="7">
         <v>659</v>
       </c>
       <c r="I10" s="7">
-        <v>456646</v>
+        <v>420807</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="M10" s="7">
         <v>1063</v>
       </c>
       <c r="N10" s="7">
-        <v>870828</v>
+        <v>814743</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,46 +6782,46 @@
         <v>141</v>
       </c>
       <c r="D11" s="7">
-        <v>142910</v>
+        <v>142238</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="H11" s="7">
         <v>187</v>
       </c>
       <c r="I11" s="7">
-        <v>126830</v>
+        <v>121661</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="M11" s="7">
         <v>328</v>
       </c>
       <c r="N11" s="7">
-        <v>269740</v>
+        <v>263899</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,7 +6833,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>557092</v>
+        <v>536175</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6179,7 +6848,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6194,7 +6863,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1140568</v>
+        <v>1078642</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6217,46 +6886,46 @@
         <v>496</v>
       </c>
       <c r="D13" s="7">
-        <v>551653</v>
+        <v>713710</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="H13" s="7">
         <v>896</v>
       </c>
       <c r="I13" s="7">
-        <v>596987</v>
+        <v>569885</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="M13" s="7">
         <v>1392</v>
       </c>
       <c r="N13" s="7">
-        <v>1148640</v>
+        <v>1283595</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,46 +6937,46 @@
         <v>169</v>
       </c>
       <c r="D14" s="7">
-        <v>172337</v>
+        <v>174076</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="H14" s="7">
         <v>243</v>
       </c>
       <c r="I14" s="7">
-        <v>149283</v>
+        <v>142067</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="M14" s="7">
         <v>412</v>
       </c>
       <c r="N14" s="7">
-        <v>321620</v>
+        <v>316143</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,7 +6988,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6334,7 +7003,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746270</v>
+        <v>711952</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6349,7 +7018,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1470260</v>
+        <v>1599738</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6372,46 +7041,46 @@
         <v>521</v>
       </c>
       <c r="D16" s="7">
-        <v>473775</v>
+        <v>439357</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="H16" s="7">
         <v>820</v>
       </c>
       <c r="I16" s="7">
-        <v>492067</v>
+        <v>448875</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="M16" s="7">
         <v>1341</v>
       </c>
       <c r="N16" s="7">
-        <v>965842</v>
+        <v>888232</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,46 +7092,46 @@
         <v>141</v>
       </c>
       <c r="D17" s="7">
-        <v>125305</v>
+        <v>120847</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="H17" s="7">
         <v>181</v>
       </c>
       <c r="I17" s="7">
-        <v>104453</v>
+        <v>98527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="M17" s="7">
         <v>322</v>
       </c>
       <c r="N17" s="7">
-        <v>229758</v>
+        <v>219374</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,7 +7143,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599080</v>
+        <v>560204</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6489,7 +7158,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>596520</v>
+        <v>547402</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6504,7 +7173,7 @@
         <v>1663</v>
       </c>
       <c r="N18" s="7">
-        <v>1195600</v>
+        <v>1107606</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6524,49 +7193,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>867</v>
+        <v>468</v>
       </c>
       <c r="D19" s="7">
-        <v>583260</v>
+        <v>298205</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="H19" s="7">
-        <v>1466</v>
+        <v>715</v>
       </c>
       <c r="I19" s="7">
-        <v>784936</v>
+        <v>349561</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>477</v>
+        <v>526</v>
       </c>
       <c r="M19" s="7">
-        <v>2333</v>
+        <v>1183</v>
       </c>
       <c r="N19" s="7">
-        <v>1368197</v>
+        <v>647766</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>478</v>
+        <v>527</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>479</v>
+        <v>528</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,49 +7244,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="D20" s="7">
-        <v>114494</v>
+        <v>69960</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>481</v>
+        <v>530</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
       <c r="H20" s="7">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="I20" s="7">
-        <v>239483</v>
+        <v>257146</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="M20" s="7">
-        <v>399</v>
+        <v>211</v>
       </c>
       <c r="N20" s="7">
-        <v>353977</v>
+        <v>327107</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,10 +7295,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6641,10 +7310,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1704</v>
+        <v>824</v>
       </c>
       <c r="I21" s="7">
-        <v>1024419</v>
+        <v>606707</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6656,10 +7325,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1722174</v>
+        <v>974873</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6673,55 +7342,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2615</v>
+        <v>399</v>
       </c>
       <c r="D22" s="7">
-        <v>2579138</v>
+        <v>243303</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>539</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>540</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="H22" s="7">
-        <v>4323</v>
+        <v>751</v>
       </c>
       <c r="I22" s="7">
-        <v>2941275</v>
+        <v>358095</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="M22" s="7">
-        <v>6938</v>
+        <v>1150</v>
       </c>
       <c r="N22" s="7">
-        <v>5520414</v>
+        <v>601398</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>496</v>
+        <v>545</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>497</v>
+        <v>546</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,49 +7399,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>759</v>
+        <v>59</v>
       </c>
       <c r="D23" s="7">
-        <v>804853</v>
+        <v>39456</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>499</v>
+        <v>548</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="H23" s="7">
-        <v>1034</v>
+        <v>129</v>
       </c>
       <c r="I23" s="7">
-        <v>862943</v>
+        <v>67344</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>504</v>
+        <v>553</v>
       </c>
       <c r="M23" s="7">
-        <v>1793</v>
+        <v>188</v>
       </c>
       <c r="N23" s="7">
-        <v>1667796</v>
+        <v>106800</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>505</v>
+        <v>554</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>506</v>
+        <v>555</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>507</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6781,63 +7450,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425439</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708198</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2615</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2645683</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4323</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2742099</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="M25" s="7">
+        <v>6938</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5387783</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>759</v>
+      </c>
+      <c r="D26" s="7">
+        <v>812941</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1034</v>
+      </c>
+      <c r="I26" s="7">
+        <v>916573</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1793</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1729513</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3374</v>
       </c>
-      <c r="D24" s="7">
-        <v>3383991</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458624</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5357</v>
       </c>
-      <c r="I24" s="7">
-        <v>3804218</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3658672</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8731</v>
       </c>
-      <c r="N24" s="7">
-        <v>7188210</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7117296</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
